--- a/kalman_parameter_comparison.xlsx
+++ b/kalman_parameter_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>T_RAISE</t>
+          <t>T_RAISE_AVG</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>STABILITY</t>
+          <t>T_RAISE_MIN</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>T_RAISE_MAX</t>
         </is>
       </c>
     </row>
@@ -460,16 +465,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>1e-06</v>
+        <v>5e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>21.47697129249573</v>
+        <v>168.0333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>3.041798041055521</v>
+        <v>16.83333333333333</v>
+      </c>
+      <c r="F2" t="n">
+        <v>458.5</v>
       </c>
     </row>
     <row r="3">
@@ -477,16 +485,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>3.4e-05</v>
+        <v>6.111111111111111e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>28.63310756683349</v>
+        <v>191.4777777777778</v>
       </c>
       <c r="E3" t="n">
-        <v>2.548230775232217</v>
+        <v>20.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>467.6666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +505,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>6.7e-05</v>
+        <v>7.222222222222223e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>62.06750311851501</v>
+        <v>238.3</v>
       </c>
       <c r="E4" t="n">
-        <v>9.395188746760102</v>
+        <v>22.72222222222222</v>
+      </c>
+      <c r="F4" t="n">
+        <v>590.5555555555555</v>
       </c>
     </row>
     <row r="5">
@@ -511,16 +525,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001</v>
+        <v>8.333333333333334e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>82.39681606292724</v>
+        <v>259.6111111111111</v>
       </c>
       <c r="E5" t="n">
-        <v>22.70727581780491</v>
+        <v>23.83333333333333</v>
+      </c>
+      <c r="F5" t="n">
+        <v>632.9444444444445</v>
       </c>
     </row>
     <row r="6">
@@ -528,16 +545,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.034</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>1e-06</v>
+        <v>9.444444444444445e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>19.15624685287476</v>
+        <v>287.8333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>3.480128553611216</v>
+        <v>24.77777777777778</v>
+      </c>
+      <c r="F6" t="n">
+        <v>674.0555555555555</v>
       </c>
     </row>
     <row r="7">
@@ -545,16 +565,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.034</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>3.4e-05</v>
+        <v>1.055555555555556e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>21.47697129249573</v>
+        <v>301.1888888888889</v>
       </c>
       <c r="E7" t="n">
-        <v>3.041798041055461</v>
+        <v>27.83333333333333</v>
+      </c>
+      <c r="F7" t="n">
+        <v>695.5</v>
       </c>
     </row>
     <row r="8">
@@ -562,16 +585,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.034</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>6.7e-05</v>
+        <v>1.166666666666667e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>21.82748017311096</v>
+        <v>332.8111111111111</v>
       </c>
       <c r="E8" t="n">
-        <v>2.618017818186275</v>
+        <v>29.27777777777778</v>
+      </c>
+      <c r="F8" t="n">
+        <v>705.2777777777778</v>
       </c>
     </row>
     <row r="9">
@@ -579,16 +605,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.034</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001</v>
+        <v>1.277777777777778e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>21.489781665802</v>
+        <v>354.2222222222222</v>
       </c>
       <c r="E9" t="n">
-        <v>2.573169702463154</v>
+        <v>31.16666666666667</v>
+      </c>
+      <c r="F9" t="n">
+        <v>705.4444444444445</v>
       </c>
     </row>
     <row r="10">
@@ -596,16 +625,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.067</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>1e-06</v>
+        <v>1.388888888888889e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>19.15624685287476</v>
+        <v>377.7111111111111</v>
       </c>
       <c r="E10" t="n">
-        <v>3.143718466065806</v>
+        <v>34.55555555555556</v>
+      </c>
+      <c r="F10" t="n">
+        <v>718.0555555555555</v>
       </c>
     </row>
     <row r="11">
@@ -613,16 +645,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.067</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>3.4e-05</v>
+        <v>1.5e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>21.37084708213806</v>
+        <v>401.6777777777778</v>
       </c>
       <c r="E11" t="n">
-        <v>3.201071433154899</v>
+        <v>34.77777777777778</v>
+      </c>
+      <c r="F11" t="n">
+        <v>727.1111111111111</v>
       </c>
     </row>
     <row r="12">
@@ -630,16 +665,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.067</v>
+        <v>0.009222222222222222</v>
       </c>
       <c r="C12" t="n">
-        <v>6.7e-05</v>
+        <v>5e-06</v>
       </c>
       <c r="D12" t="n">
-        <v>21.47697129249573</v>
+        <v>157.8222222222222</v>
       </c>
       <c r="E12" t="n">
-        <v>3.041798041055424</v>
+        <v>15.66666666666667</v>
+      </c>
+      <c r="F12" t="n">
+        <v>422.1111111111111</v>
       </c>
     </row>
     <row r="13">
@@ -647,16 +685,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.067</v>
+        <v>0.009222222222222222</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001</v>
+        <v>6.111111111111111e-06</v>
       </c>
       <c r="D13" t="n">
-        <v>21.85117173194885</v>
+        <v>191.5777777777778</v>
       </c>
       <c r="E13" t="n">
-        <v>2.752509026317522</v>
+        <v>20.44444444444444</v>
+      </c>
+      <c r="F13" t="n">
+        <v>467.7222222222222</v>
       </c>
     </row>
     <row r="14">
@@ -664,16 +705,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1</v>
+        <v>0.009222222222222222</v>
       </c>
       <c r="C14" t="n">
-        <v>1e-06</v>
+        <v>7.222222222222223e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>19.15624685287476</v>
+        <v>232.4666666666667</v>
       </c>
       <c r="E14" t="n">
-        <v>2.90924538972823</v>
+        <v>22.66666666666667</v>
+      </c>
+      <c r="F14" t="n">
+        <v>590.6111111111111</v>
       </c>
     </row>
     <row r="15">
@@ -681,16 +725,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1</v>
+        <v>0.009222222222222222</v>
       </c>
       <c r="C15" t="n">
-        <v>3.4e-05</v>
+        <v>8.333333333333334e-06</v>
       </c>
       <c r="D15" t="n">
-        <v>21.32905464172363</v>
+        <v>255.3555555555556</v>
       </c>
       <c r="E15" t="n">
-        <v>3.338789402951293</v>
+        <v>22.72222222222222</v>
+      </c>
+      <c r="F15" t="n">
+        <v>612.8333333333334</v>
       </c>
     </row>
     <row r="16">
@@ -698,16 +745,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1</v>
+        <v>0.009222222222222222</v>
       </c>
       <c r="C16" t="n">
-        <v>6.7e-05</v>
+        <v>9.444444444444445e-06</v>
       </c>
       <c r="D16" t="n">
-        <v>21.3703583240509</v>
+        <v>276.7444444444445</v>
       </c>
       <c r="E16" t="n">
-        <v>3.166470561604787</v>
+        <v>24.77777777777778</v>
+      </c>
+      <c r="F16" t="n">
+        <v>667.6111111111111</v>
       </c>
     </row>
     <row r="17">
@@ -715,16 +765,1699 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1</v>
+        <v>0.009222222222222222</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001</v>
+        <v>1.055555555555556e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>21.47697129249573</v>
+        <v>292.7888888888889</v>
       </c>
       <c r="E17" t="n">
-        <v>3.041798041055372</v>
+        <v>28.22222222222222</v>
+      </c>
+      <c r="F17" t="n">
+        <v>674.2777777777778</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.009222222222222222</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.166666666666667e-05</v>
+      </c>
+      <c r="D18" t="n">
+        <v>324.5666666666667</v>
+      </c>
+      <c r="E18" t="n">
+        <v>28.38888888888889</v>
+      </c>
+      <c r="F18" t="n">
+        <v>705.2777777777778</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.009222222222222222</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.277777777777778e-05</v>
+      </c>
+      <c r="D19" t="n">
+        <v>348.1888888888889</v>
+      </c>
+      <c r="E19" t="n">
+        <v>31.22222222222222</v>
+      </c>
+      <c r="F19" t="n">
+        <v>705.4444444444445</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.009222222222222222</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.388888888888889e-05</v>
+      </c>
+      <c r="D20" t="n">
+        <v>370.3888888888889</v>
+      </c>
+      <c r="E20" t="n">
+        <v>34.61111111111111</v>
+      </c>
+      <c r="F20" t="n">
+        <v>717.9444444444445</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.009222222222222222</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="D21" t="n">
+        <v>393.9111111111111</v>
+      </c>
+      <c r="E21" t="n">
+        <v>34.88888888888889</v>
+      </c>
+      <c r="F21" t="n">
+        <v>720.2777777777778</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.009444444444444445</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="D22" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.888888888888889</v>
+      </c>
+      <c r="F22" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.009444444444444445</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.111111111111111e-06</v>
+      </c>
+      <c r="D23" t="n">
+        <v>188.1222222222222</v>
+      </c>
+      <c r="E23" t="n">
+        <v>19.72222222222222</v>
+      </c>
+      <c r="F23" t="n">
+        <v>467.8333333333333</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.009444444444444445</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7.222222222222223e-06</v>
+      </c>
+      <c r="D24" t="n">
+        <v>229.5333333333333</v>
+      </c>
+      <c r="E24" t="n">
+        <v>22.72222222222222</v>
+      </c>
+      <c r="F24" t="n">
+        <v>590.5555555555555</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.009444444444444445</v>
+      </c>
+      <c r="C25" t="n">
+        <v>8.333333333333334e-06</v>
+      </c>
+      <c r="D25" t="n">
+        <v>249.1333333333333</v>
+      </c>
+      <c r="E25" t="n">
+        <v>22.72222222222222</v>
+      </c>
+      <c r="F25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.009444444444444445</v>
+      </c>
+      <c r="C26" t="n">
+        <v>9.444444444444445e-06</v>
+      </c>
+      <c r="D26" t="n">
+        <v>271.2333333333333</v>
+      </c>
+      <c r="E26" t="n">
+        <v>23.83333333333333</v>
+      </c>
+      <c r="F26" t="n">
+        <v>667.6111111111111</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.009444444444444445</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.055555555555556e-05</v>
+      </c>
+      <c r="D27" t="n">
+        <v>289.2444444444445</v>
+      </c>
+      <c r="E27" t="n">
+        <v>28.05555555555556</v>
+      </c>
+      <c r="F27" t="n">
+        <v>674.2777777777778</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.009444444444444445</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.166666666666667e-05</v>
+      </c>
+      <c r="D28" t="n">
+        <v>311.1555555555556</v>
+      </c>
+      <c r="E28" t="n">
+        <v>27.72222222222222</v>
+      </c>
+      <c r="F28" t="n">
+        <v>695.6111111111111</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.009444444444444445</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.277777777777778e-05</v>
+      </c>
+      <c r="D29" t="n">
+        <v>340.7555555555555</v>
+      </c>
+      <c r="E29" t="n">
+        <v>31.27777777777778</v>
+      </c>
+      <c r="F29" t="n">
+        <v>705.2777777777778</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.009444444444444445</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.388888888888889e-05</v>
+      </c>
+      <c r="D30" t="n">
+        <v>358.7666666666667</v>
+      </c>
+      <c r="E30" t="n">
+        <v>31.55555555555556</v>
+      </c>
+      <c r="F30" t="n">
+        <v>705.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.009444444444444445</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="D31" t="n">
+        <v>393.9222222222222</v>
+      </c>
+      <c r="E31" t="n">
+        <v>35.11111111111111</v>
+      </c>
+      <c r="F31" t="n">
+        <v>720.2222222222222</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.009666666666666665</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="D32" t="n">
+        <v>139.5333333333333</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.888888888888889</v>
+      </c>
+      <c r="F32" t="n">
+        <v>403.8888888888889</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.009666666666666665</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6.111111111111111e-06</v>
+      </c>
+      <c r="D33" t="n">
+        <v>188.0555555555555</v>
+      </c>
+      <c r="E33" t="n">
+        <v>19.72222222222222</v>
+      </c>
+      <c r="F33" t="n">
+        <v>467.2222222222222</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.009666666666666665</v>
+      </c>
+      <c r="C34" t="n">
+        <v>7.222222222222223e-06</v>
+      </c>
+      <c r="D34" t="n">
+        <v>208.5333333333333</v>
+      </c>
+      <c r="E34" t="n">
+        <v>20.38888888888889</v>
+      </c>
+      <c r="F34" t="n">
+        <v>533.2777777777778</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.009666666666666665</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8.333333333333334e-06</v>
+      </c>
+      <c r="D35" t="n">
+        <v>243.1444444444444</v>
+      </c>
+      <c r="E35" t="n">
+        <v>22.77777777777778</v>
+      </c>
+      <c r="F35" t="n">
+        <v>590.7777777777778</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.009666666666666665</v>
+      </c>
+      <c r="C36" t="n">
+        <v>9.444444444444445e-06</v>
+      </c>
+      <c r="D36" t="n">
+        <v>267.4666666666666</v>
+      </c>
+      <c r="E36" t="n">
+        <v>23.83333333333333</v>
+      </c>
+      <c r="F36" t="n">
+        <v>667.2222222222222</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.009666666666666665</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.055555555555556e-05</v>
+      </c>
+      <c r="D37" t="n">
+        <v>287.7222222222222</v>
+      </c>
+      <c r="E37" t="n">
+        <v>24.44444444444444</v>
+      </c>
+      <c r="F37" t="n">
+        <v>674.2777777777778</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.009666666666666665</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.166666666666667e-05</v>
+      </c>
+      <c r="D38" t="n">
+        <v>307.2777777777778</v>
+      </c>
+      <c r="E38" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="F38" t="n">
+        <v>695.6666666666666</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.009666666666666665</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.277777777777778e-05</v>
+      </c>
+      <c r="D39" t="n">
+        <v>340.7888888888889</v>
+      </c>
+      <c r="E39" t="n">
+        <v>31.38888888888889</v>
+      </c>
+      <c r="F39" t="n">
+        <v>705.3333333333334</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.009666666666666665</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.388888888888889e-05</v>
+      </c>
+      <c r="D40" t="n">
+        <v>354.0333333333334</v>
+      </c>
+      <c r="E40" t="n">
+        <v>31.16666666666667</v>
+      </c>
+      <c r="F40" t="n">
+        <v>705.4444444444445</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.009666666666666665</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="D41" t="n">
+        <v>383.4888888888889</v>
+      </c>
+      <c r="E41" t="n">
+        <v>34.55555555555556</v>
+      </c>
+      <c r="F41" t="n">
+        <v>718.0555555555555</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.009888888888888888</v>
+      </c>
+      <c r="C42" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="D42" t="n">
+        <v>139.7888888888889</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4.888888888888889</v>
+      </c>
+      <c r="F42" t="n">
+        <v>404.7222222222222</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.009888888888888888</v>
+      </c>
+      <c r="C43" t="n">
+        <v>6.111111111111111e-06</v>
+      </c>
+      <c r="D43" t="n">
+        <v>188.2777777777778</v>
+      </c>
+      <c r="E43" t="n">
+        <v>19.66666666666667</v>
+      </c>
+      <c r="F43" t="n">
+        <v>467.4444444444445</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.009888888888888888</v>
+      </c>
+      <c r="C44" t="n">
+        <v>7.222222222222223e-06</v>
+      </c>
+      <c r="D44" t="n">
+        <v>198.3666666666667</v>
+      </c>
+      <c r="E44" t="n">
+        <v>20.38888888888889</v>
+      </c>
+      <c r="F44" t="n">
+        <v>496.3888888888889</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.009888888888888888</v>
+      </c>
+      <c r="C45" t="n">
+        <v>8.333333333333334e-06</v>
+      </c>
+      <c r="D45" t="n">
+        <v>239.0222222222222</v>
+      </c>
+      <c r="E45" t="n">
+        <v>22.83333333333333</v>
+      </c>
+      <c r="F45" t="n">
+        <v>590.7777777777778</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.009888888888888888</v>
+      </c>
+      <c r="C46" t="n">
+        <v>9.444444444444445e-06</v>
+      </c>
+      <c r="D46" t="n">
+        <v>261.3444444444444</v>
+      </c>
+      <c r="E46" t="n">
+        <v>23.72222222222222</v>
+      </c>
+      <c r="F46" t="n">
+        <v>640.1666666666666</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.009888888888888888</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.055555555555556e-05</v>
+      </c>
+      <c r="D47" t="n">
+        <v>287.7333333333333</v>
+      </c>
+      <c r="E47" t="n">
+        <v>24.44444444444444</v>
+      </c>
+      <c r="F47" t="n">
+        <v>674.1111111111111</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.009888888888888888</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.166666666666667e-05</v>
+      </c>
+      <c r="D48" t="n">
+        <v>301.2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>27.83333333333333</v>
+      </c>
+      <c r="F48" t="n">
+        <v>695.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.009888888888888888</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.277777777777778e-05</v>
+      </c>
+      <c r="D49" t="n">
+        <v>332.8333333333333</v>
+      </c>
+      <c r="E49" t="n">
+        <v>29.33333333333333</v>
+      </c>
+      <c r="F49" t="n">
+        <v>705.2777777777778</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.009888888888888888</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.388888888888889e-05</v>
+      </c>
+      <c r="D50" t="n">
+        <v>348.1666666666667</v>
+      </c>
+      <c r="E50" t="n">
+        <v>31.16666666666667</v>
+      </c>
+      <c r="F50" t="n">
+        <v>705.4444444444445</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.009888888888888888</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="D51" t="n">
+        <v>377.7333333333333</v>
+      </c>
+      <c r="E51" t="n">
+        <v>34.61111111111111</v>
+      </c>
+      <c r="F51" t="n">
+        <v>717.9444444444445</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.01011111111111111</v>
+      </c>
+      <c r="C52" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="D52" t="n">
+        <v>139.9888888888889</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="F52" t="n">
+        <v>404.6111111111111</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.01011111111111111</v>
+      </c>
+      <c r="C53" t="n">
+        <v>6.111111111111111e-06</v>
+      </c>
+      <c r="D53" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="E53" t="n">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F53" t="n">
+        <v>466.2222222222222</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.01011111111111111</v>
+      </c>
+      <c r="C54" t="n">
+        <v>7.222222222222223e-06</v>
+      </c>
+      <c r="D54" t="n">
+        <v>196.7555555555556</v>
+      </c>
+      <c r="E54" t="n">
+        <v>20.38888888888889</v>
+      </c>
+      <c r="F54" t="n">
+        <v>496.3888888888889</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.01011111111111111</v>
+      </c>
+      <c r="C55" t="n">
+        <v>8.333333333333334e-06</v>
+      </c>
+      <c r="D55" t="n">
+        <v>239.0222222222222</v>
+      </c>
+      <c r="E55" t="n">
+        <v>22.83333333333333</v>
+      </c>
+      <c r="F55" t="n">
+        <v>590.6666666666666</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.01011111111111111</v>
+      </c>
+      <c r="C56" t="n">
+        <v>9.444444444444445e-06</v>
+      </c>
+      <c r="D56" t="n">
+        <v>259.5555555555555</v>
+      </c>
+      <c r="E56" t="n">
+        <v>23.77777777777778</v>
+      </c>
+      <c r="F56" t="n">
+        <v>632.9444444444445</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.01011111111111111</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.055555555555556e-05</v>
+      </c>
+      <c r="D57" t="n">
+        <v>286.5444444444444</v>
+      </c>
+      <c r="E57" t="n">
+        <v>24.77777777777778</v>
+      </c>
+      <c r="F57" t="n">
+        <v>667.5555555555555</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.01011111111111111</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.166666666666667e-05</v>
+      </c>
+      <c r="D58" t="n">
+        <v>292.7777777777778</v>
+      </c>
+      <c r="E58" t="n">
+        <v>28.11111111111111</v>
+      </c>
+      <c r="F58" t="n">
+        <v>674.2777777777778</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.01011111111111111</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.277777777777778e-05</v>
+      </c>
+      <c r="D59" t="n">
+        <v>324.5666666666667</v>
+      </c>
+      <c r="E59" t="n">
+        <v>28.38888888888889</v>
+      </c>
+      <c r="F59" t="n">
+        <v>705.2777777777778</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.01011111111111111</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.388888888888889e-05</v>
+      </c>
+      <c r="D60" t="n">
+        <v>346.2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>31.22222222222222</v>
+      </c>
+      <c r="F60" t="n">
+        <v>705.3888888888889</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.01011111111111111</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="D61" t="n">
+        <v>370.1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>32.72222222222222</v>
+      </c>
+      <c r="F61" t="n">
+        <v>717.9444444444445</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.01033333333333333</v>
+      </c>
+      <c r="C62" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="D62" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4.888888888888889</v>
+      </c>
+      <c r="F62" t="n">
+        <v>404.6111111111111</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.01033333333333333</v>
+      </c>
+      <c r="C63" t="n">
+        <v>6.111111111111111e-06</v>
+      </c>
+      <c r="D63" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="E63" t="n">
+        <v>16.77777777777778</v>
+      </c>
+      <c r="F63" t="n">
+        <v>466.8333333333333</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.01033333333333333</v>
+      </c>
+      <c r="C64" t="n">
+        <v>7.222222222222223e-06</v>
+      </c>
+      <c r="D64" t="n">
+        <v>196.9666666666667</v>
+      </c>
+      <c r="E64" t="n">
+        <v>20.44444444444444</v>
+      </c>
+      <c r="F64" t="n">
+        <v>496.5555555555555</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.01033333333333333</v>
+      </c>
+      <c r="C65" t="n">
+        <v>8.333333333333334e-06</v>
+      </c>
+      <c r="D65" t="n">
+        <v>239.1555555555556</v>
+      </c>
+      <c r="E65" t="n">
+        <v>22.83333333333333</v>
+      </c>
+      <c r="F65" t="n">
+        <v>590.5555555555555</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.01033333333333333</v>
+      </c>
+      <c r="C66" t="n">
+        <v>9.444444444444445e-06</v>
+      </c>
+      <c r="D66" t="n">
+        <v>255.0111111111111</v>
+      </c>
+      <c r="E66" t="n">
+        <v>22.77777777777778</v>
+      </c>
+      <c r="F66" t="n">
+        <v>612.8333333333334</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.01033333333333333</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.055555555555556e-05</v>
+      </c>
+      <c r="D67" t="n">
+        <v>272.6111111111111</v>
+      </c>
+      <c r="E67" t="n">
+        <v>23.72222222222222</v>
+      </c>
+      <c r="F67" t="n">
+        <v>667.6111111111111</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.01033333333333333</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.166666666666667e-05</v>
+      </c>
+      <c r="D68" t="n">
+        <v>289.2333333333333</v>
+      </c>
+      <c r="E68" t="n">
+        <v>28.05555555555556</v>
+      </c>
+      <c r="F68" t="n">
+        <v>674.2777777777778</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.01033333333333333</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.277777777777778e-05</v>
+      </c>
+      <c r="D69" t="n">
+        <v>317.3666666666667</v>
+      </c>
+      <c r="E69" t="n">
+        <v>27.72222222222222</v>
+      </c>
+      <c r="F69" t="n">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.01033333333333333</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.388888888888889e-05</v>
+      </c>
+      <c r="D70" t="n">
+        <v>340.7666666666667</v>
+      </c>
+      <c r="E70" t="n">
+        <v>31.33333333333333</v>
+      </c>
+      <c r="F70" t="n">
+        <v>705.2777777777778</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.01033333333333333</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="D71" t="n">
+        <v>354.6444444444444</v>
+      </c>
+      <c r="E71" t="n">
+        <v>31.11111111111111</v>
+      </c>
+      <c r="F71" t="n">
+        <v>705.5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.01055555555555555</v>
+      </c>
+      <c r="C72" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="D72" t="n">
+        <v>140.3</v>
+      </c>
+      <c r="E72" t="n">
+        <v>4.888888888888889</v>
+      </c>
+      <c r="F72" t="n">
+        <v>404.6666666666667</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.01055555555555555</v>
+      </c>
+      <c r="C73" t="n">
+        <v>6.111111111111111e-06</v>
+      </c>
+      <c r="D73" t="n">
+        <v>182.8111111111111</v>
+      </c>
+      <c r="E73" t="n">
+        <v>16.77777777777778</v>
+      </c>
+      <c r="F73" t="n">
+        <v>459.1111111111111</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.01055555555555555</v>
+      </c>
+      <c r="C74" t="n">
+        <v>7.222222222222223e-06</v>
+      </c>
+      <c r="D74" t="n">
+        <v>191.4444444444445</v>
+      </c>
+      <c r="E74" t="n">
+        <v>20.44444444444444</v>
+      </c>
+      <c r="F74" t="n">
+        <v>467.7777777777778</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.01055555555555555</v>
+      </c>
+      <c r="C75" t="n">
+        <v>8.333333333333334e-06</v>
+      </c>
+      <c r="D75" t="n">
+        <v>232.4111111111111</v>
+      </c>
+      <c r="E75" t="n">
+        <v>22.72222222222222</v>
+      </c>
+      <c r="F75" t="n">
+        <v>590.6111111111111</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.01055555555555555</v>
+      </c>
+      <c r="C76" t="n">
+        <v>9.444444444444445e-06</v>
+      </c>
+      <c r="D76" t="n">
+        <v>249.1111111111111</v>
+      </c>
+      <c r="E76" t="n">
+        <v>22.72222222222222</v>
+      </c>
+      <c r="F76" t="n">
+        <v>593.0555555555555</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.01055555555555555</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.055555555555556e-05</v>
+      </c>
+      <c r="D77" t="n">
+        <v>271.2333333333333</v>
+      </c>
+      <c r="E77" t="n">
+        <v>23.83333333333333</v>
+      </c>
+      <c r="F77" t="n">
+        <v>667.6111111111111</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.01055555555555555</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.166666666666667e-05</v>
+      </c>
+      <c r="D78" t="n">
+        <v>288.2666666666667</v>
+      </c>
+      <c r="E78" t="n">
+        <v>24.44444444444444</v>
+      </c>
+      <c r="F78" t="n">
+        <v>674.2777777777778</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.01055555555555555</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.277777777777778e-05</v>
+      </c>
+      <c r="D79" t="n">
+        <v>307.2666666666667</v>
+      </c>
+      <c r="E79" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="F79" t="n">
+        <v>695.6111111111111</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.01055555555555555</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.388888888888889e-05</v>
+      </c>
+      <c r="D80" t="n">
+        <v>340.8</v>
+      </c>
+      <c r="E80" t="n">
+        <v>31.44444444444444</v>
+      </c>
+      <c r="F80" t="n">
+        <v>705.3333333333334</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.01055555555555555</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="D81" t="n">
+        <v>354.2222222222222</v>
+      </c>
+      <c r="E81" t="n">
+        <v>31.16666666666667</v>
+      </c>
+      <c r="F81" t="n">
+        <v>705.4444444444445</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.01077777777777778</v>
+      </c>
+      <c r="C82" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="D82" t="n">
+        <v>140.4555555555555</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4.888888888888889</v>
+      </c>
+      <c r="F82" t="n">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.01077777777777778</v>
+      </c>
+      <c r="C83" t="n">
+        <v>6.111111111111111e-06</v>
+      </c>
+      <c r="D83" t="n">
+        <v>174.2111111111111</v>
+      </c>
+      <c r="E83" t="n">
+        <v>16.77777777777778</v>
+      </c>
+      <c r="F83" t="n">
+        <v>458.5555555555555</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.01077777777777778</v>
+      </c>
+      <c r="C84" t="n">
+        <v>7.222222222222223e-06</v>
+      </c>
+      <c r="D84" t="n">
+        <v>191.6</v>
+      </c>
+      <c r="E84" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F84" t="n">
+        <v>467.8333333333333</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.01077777777777778</v>
+      </c>
+      <c r="C85" t="n">
+        <v>8.333333333333334e-06</v>
+      </c>
+      <c r="D85" t="n">
+        <v>232.3777777777778</v>
+      </c>
+      <c r="E85" t="n">
+        <v>22.66666666666667</v>
+      </c>
+      <c r="F85" t="n">
+        <v>590.6111111111111</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.01077777777777778</v>
+      </c>
+      <c r="C86" t="n">
+        <v>9.444444444444445e-06</v>
+      </c>
+      <c r="D86" t="n">
+        <v>243.1222222222222</v>
+      </c>
+      <c r="E86" t="n">
+        <v>22.72222222222222</v>
+      </c>
+      <c r="F86" t="n">
+        <v>590.8888888888889</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.01077777777777778</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.055555555555556e-05</v>
+      </c>
+      <c r="D87" t="n">
+        <v>267.4777777777778</v>
+      </c>
+      <c r="E87" t="n">
+        <v>23.88888888888889</v>
+      </c>
+      <c r="F87" t="n">
+        <v>667.2222222222222</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.01077777777777778</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.166666666666667e-05</v>
+      </c>
+      <c r="D88" t="n">
+        <v>287.7222222222222</v>
+      </c>
+      <c r="E88" t="n">
+        <v>24.44444444444444</v>
+      </c>
+      <c r="F88" t="n">
+        <v>674.1666666666666</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.01077777777777778</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.277777777777778e-05</v>
+      </c>
+      <c r="D89" t="n">
+        <v>301.1888888888889</v>
+      </c>
+      <c r="E89" t="n">
+        <v>27.83333333333333</v>
+      </c>
+      <c r="F89" t="n">
+        <v>695.5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.01077777777777778</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.388888888888889e-05</v>
+      </c>
+      <c r="D90" t="n">
+        <v>332.8666666666667</v>
+      </c>
+      <c r="E90" t="n">
+        <v>29.38888888888889</v>
+      </c>
+      <c r="F90" t="n">
+        <v>705.2777777777778</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.01077777777777778</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="D91" t="n">
+        <v>348.1888888888889</v>
+      </c>
+      <c r="E91" t="n">
+        <v>31.22222222222222</v>
+      </c>
+      <c r="F91" t="n">
+        <v>705.4444444444445</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="C92" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="D92" t="n">
+        <v>140.5777777777778</v>
+      </c>
+      <c r="E92" t="n">
+        <v>4.888888888888889</v>
+      </c>
+      <c r="F92" t="n">
+        <v>404.8333333333333</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="C93" t="n">
+        <v>6.111111111111111e-06</v>
+      </c>
+      <c r="D93" t="n">
+        <v>168.0333333333333</v>
+      </c>
+      <c r="E93" t="n">
+        <v>16.83333333333333</v>
+      </c>
+      <c r="F93" t="n">
+        <v>458.5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="C94" t="n">
+        <v>7.222222222222223e-06</v>
+      </c>
+      <c r="D94" t="n">
+        <v>188.1111111111111</v>
+      </c>
+      <c r="E94" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F94" t="n">
+        <v>467.6666666666667</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="C95" t="n">
+        <v>8.333333333333334e-06</v>
+      </c>
+      <c r="D95" t="n">
+        <v>217.2111111111111</v>
+      </c>
+      <c r="E95" t="n">
+        <v>22.44444444444444</v>
+      </c>
+      <c r="F95" t="n">
+        <v>573.4444444444445</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="C96" t="n">
+        <v>9.444444444444445e-06</v>
+      </c>
+      <c r="D96" t="n">
+        <v>243.1555555555556</v>
+      </c>
+      <c r="E96" t="n">
+        <v>22.77777777777778</v>
+      </c>
+      <c r="F96" t="n">
+        <v>590.7777777777778</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.055555555555556e-05</v>
+      </c>
+      <c r="D97" t="n">
+        <v>261.3666666666667</v>
+      </c>
+      <c r="E97" t="n">
+        <v>23.72222222222222</v>
+      </c>
+      <c r="F97" t="n">
+        <v>640.1666666666666</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.166666666666667e-05</v>
+      </c>
+      <c r="D98" t="n">
+        <v>287.7666666666667</v>
+      </c>
+      <c r="E98" t="n">
+        <v>24.77777777777778</v>
+      </c>
+      <c r="F98" t="n">
+        <v>674.0555555555555</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.277777777777778e-05</v>
+      </c>
+      <c r="D99" t="n">
+        <v>296.9444444444445</v>
+      </c>
+      <c r="E99" t="n">
+        <v>28.11111111111111</v>
+      </c>
+      <c r="F99" t="n">
+        <v>695.2777777777778</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.388888888888889e-05</v>
+      </c>
+      <c r="D100" t="n">
+        <v>324.5555555555555</v>
+      </c>
+      <c r="E100" t="n">
+        <v>28.38888888888889</v>
+      </c>
+      <c r="F100" t="n">
+        <v>705.2777777777778</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="D101" t="n">
+        <v>340.7666666666667</v>
+      </c>
+      <c r="E101" t="n">
+        <v>31.27777777777778</v>
+      </c>
+      <c r="F101" t="n">
+        <v>705.3888888888889</v>
       </c>
     </row>
   </sheetData>
